--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H2">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N2">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O2">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P2">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q2">
-        <v>0.09496886502422222</v>
+        <v>0.154905462334</v>
       </c>
       <c r="R2">
-        <v>0.854719785218</v>
+        <v>1.394149161006</v>
       </c>
       <c r="S2">
-        <v>0.001037929254359375</v>
+        <v>0.001541026532132696</v>
       </c>
       <c r="T2">
-        <v>0.001037929254359375</v>
+        <v>0.001541026532132696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.148598</v>
       </c>
       <c r="O3">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P3">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q3">
-        <v>0.9977442087086668</v>
+        <v>1.500502084027333</v>
       </c>
       <c r="R3">
-        <v>8.979697878378001</v>
+        <v>13.504518756246</v>
       </c>
       <c r="S3">
-        <v>0.01090449909370023</v>
+        <v>0.01492725619978991</v>
       </c>
       <c r="T3">
-        <v>0.01090449909370024</v>
+        <v>0.01492725619978991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H4">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N4">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q4">
-        <v>0.4665266602903334</v>
+        <v>0.9027685593881111</v>
       </c>
       <c r="R4">
-        <v>4.198739942613001</v>
+        <v>8.124917034493</v>
       </c>
       <c r="S4">
-        <v>0.005098741240409816</v>
+        <v>0.008980898939461992</v>
       </c>
       <c r="T4">
-        <v>0.005098741240409816</v>
+        <v>0.008980898939461992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H5">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N5">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q5">
-        <v>0.004066488940000001</v>
+        <v>0.002658774390222222</v>
       </c>
       <c r="R5">
-        <v>0.03659840046</v>
+        <v>0.023928969512</v>
       </c>
       <c r="S5">
-        <v>4.444327972413202E-05</v>
+        <v>2.644995093493275E-05</v>
       </c>
       <c r="T5">
-        <v>4.444327972413202E-05</v>
+        <v>2.644995093493275E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.972371</v>
       </c>
       <c r="I6">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J6">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N6">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O6">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P6">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q6">
-        <v>5.463442516344221</v>
+        <v>5.925629247481999</v>
       </c>
       <c r="R6">
-        <v>49.17098264709799</v>
+        <v>53.33066322733799</v>
       </c>
       <c r="S6">
-        <v>0.05971079906849616</v>
+        <v>0.05894919231616397</v>
       </c>
       <c r="T6">
-        <v>0.05971079906849616</v>
+        <v>0.05894919231616397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.972371</v>
       </c>
       <c r="I7">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J7">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.148598</v>
       </c>
       <c r="O7">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P7">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q7">
-        <v>57.39900259842867</v>
+        <v>57.39900259842866</v>
       </c>
       <c r="R7">
-        <v>516.5910233858581</v>
+        <v>516.591023385858</v>
       </c>
       <c r="S7">
-        <v>0.6273224804020113</v>
+        <v>0.5710152798318564</v>
       </c>
       <c r="T7">
-        <v>0.6273224804020113</v>
+        <v>0.5710152798318564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.972371</v>
       </c>
       <c r="I8">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J8">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N8">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O8">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P8">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q8">
-        <v>26.83870750891034</v>
+        <v>34.53378401649322</v>
       </c>
       <c r="R8">
-        <v>241.548367580193</v>
+        <v>310.804056148439</v>
       </c>
       <c r="S8">
-        <v>0.2933243401991558</v>
+        <v>0.3435481010321701</v>
       </c>
       <c r="T8">
-        <v>0.2933243401991558</v>
+        <v>0.3435481010321701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.972371</v>
       </c>
       <c r="I9">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J9">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N9">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O9">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P9">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q9">
-        <v>0.23394012934</v>
+        <v>0.1017066219084444</v>
       </c>
       <c r="R9">
-        <v>2.10546116406</v>
+        <v>0.9153595971759999</v>
       </c>
       <c r="S9">
-        <v>0.002556767462143213</v>
+        <v>0.001011795197489949</v>
       </c>
       <c r="T9">
-        <v>0.002556767462143213</v>
+        <v>0.001011795197489949</v>
       </c>
     </row>
   </sheetData>
